--- a/product_0312/店家表.xlsx
+++ b/product_0312/店家表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_html\product_0312\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75651130-40D2-4C48-B712-6A17E6187C29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD308A3B-01B6-402E-9CB0-B247DCD5E82B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="7935" xr2:uid="{CB3E863F-C092-43D4-829C-A04198AFDA87}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{CB3E863F-C092-43D4-829C-A04198AFDA87}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="627">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,6 +1014,921 @@
   </si>
   <si>
     <t>西式店家150</t>
+  </si>
+  <si>
+    <t>電話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>408台中市南屯區公益路二段51號18樓</t>
+  </si>
+  <si>
+    <t>408台中市南屯區公益路二段51號18樓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-0000-0000</t>
+  </si>
+  <si>
+    <t>02-1111-1111</t>
+  </si>
+  <si>
+    <t>02-2222-2222</t>
+  </si>
+  <si>
+    <t>02-0000-1111</t>
+  </si>
+  <si>
+    <t>02-0000-2222</t>
+  </si>
+  <si>
+    <t>02-0000-3333</t>
+  </si>
+  <si>
+    <t>02-0000-4444</t>
+  </si>
+  <si>
+    <t>02-0000-5555</t>
+  </si>
+  <si>
+    <t>02-0000-6666</t>
+  </si>
+  <si>
+    <t>02-0000-7777</t>
+  </si>
+  <si>
+    <t>02-0000-8888</t>
+  </si>
+  <si>
+    <t>02-0000-9999</t>
+  </si>
+  <si>
+    <t>02-1111-0000</t>
+  </si>
+  <si>
+    <t>02-1111-2222</t>
+  </si>
+  <si>
+    <t>02-1111-3333</t>
+  </si>
+  <si>
+    <t>02-1111-4444</t>
+  </si>
+  <si>
+    <t>02-1111-5555</t>
+  </si>
+  <si>
+    <t>02-1111-6666</t>
+  </si>
+  <si>
+    <t>02-1111-7777</t>
+  </si>
+  <si>
+    <t>02-1111-8888</t>
+  </si>
+  <si>
+    <t>02-1111-9999</t>
+  </si>
+  <si>
+    <t>02-2222-0000</t>
+  </si>
+  <si>
+    <t>02-2222-1111</t>
+  </si>
+  <si>
+    <t>02-2222-3333</t>
+  </si>
+  <si>
+    <t>02-2222-4444</t>
+  </si>
+  <si>
+    <t>02-2222-5555</t>
+  </si>
+  <si>
+    <t>02-2222-6666</t>
+  </si>
+  <si>
+    <t>02-2222-7777</t>
+  </si>
+  <si>
+    <t>02-2222-8888</t>
+  </si>
+  <si>
+    <t>02-2222-9999</t>
+  </si>
+  <si>
+    <t>02-3333-0000</t>
+  </si>
+  <si>
+    <t>02-3333-1111</t>
+  </si>
+  <si>
+    <t>02-3333-2222</t>
+  </si>
+  <si>
+    <t>02-3333-3333</t>
+  </si>
+  <si>
+    <t>02-3333-4444</t>
+  </si>
+  <si>
+    <t>02-3333-5555</t>
+  </si>
+  <si>
+    <t>02-3333-6666</t>
+  </si>
+  <si>
+    <t>02-3333-7777</t>
+  </si>
+  <si>
+    <t>02-3333-8888</t>
+  </si>
+  <si>
+    <t>02-3333-9999</t>
+  </si>
+  <si>
+    <t>02-4444-0000</t>
+  </si>
+  <si>
+    <t>02-4444-1111</t>
+  </si>
+  <si>
+    <t>02-4444-2222</t>
+  </si>
+  <si>
+    <t>02-4444-3333</t>
+  </si>
+  <si>
+    <t>02-4444-4444</t>
+  </si>
+  <si>
+    <t>02-4444-5555</t>
+  </si>
+  <si>
+    <t>02-4444-6666</t>
+  </si>
+  <si>
+    <t>02-4444-7777</t>
+  </si>
+  <si>
+    <t>02-4444-8888</t>
+  </si>
+  <si>
+    <t>02-4444-9999</t>
+  </si>
+  <si>
+    <t>02-5555-0000</t>
+  </si>
+  <si>
+    <t>02-5555-1111</t>
+  </si>
+  <si>
+    <t>02-5555-2222</t>
+  </si>
+  <si>
+    <t>02-5555-3333</t>
+  </si>
+  <si>
+    <t>02-5555-4444</t>
+  </si>
+  <si>
+    <t>02-5555-5555</t>
+  </si>
+  <si>
+    <t>02-5555-6666</t>
+  </si>
+  <si>
+    <t>02-5555-7777</t>
+  </si>
+  <si>
+    <t>02-5555-8888</t>
+  </si>
+  <si>
+    <t>02-5555-9999</t>
+  </si>
+  <si>
+    <t>02-6666-0000</t>
+  </si>
+  <si>
+    <t>02-6666-1111</t>
+  </si>
+  <si>
+    <t>02-6666-2222</t>
+  </si>
+  <si>
+    <t>02-6666-3333</t>
+  </si>
+  <si>
+    <t>02-6666-4444</t>
+  </si>
+  <si>
+    <t>02-6666-5555</t>
+  </si>
+  <si>
+    <t>02-6666-6666</t>
+  </si>
+  <si>
+    <t>02-6666-7777</t>
+  </si>
+  <si>
+    <t>02-6666-8888</t>
+  </si>
+  <si>
+    <t>02-6666-9999</t>
+  </si>
+  <si>
+    <t>02-7777-0000</t>
+  </si>
+  <si>
+    <t>02-7777-1111</t>
+  </si>
+  <si>
+    <t>02-7777-2222</t>
+  </si>
+  <si>
+    <t>02-7777-3333</t>
+  </si>
+  <si>
+    <t>02-7777-4444</t>
+  </si>
+  <si>
+    <t>02-7777-5555</t>
+  </si>
+  <si>
+    <t>02-7777-6666</t>
+  </si>
+  <si>
+    <t>02-7777-7777</t>
+  </si>
+  <si>
+    <t>02-7777-8888</t>
+  </si>
+  <si>
+    <t>02-7777-9999</t>
+  </si>
+  <si>
+    <t>02-8888-0000</t>
+  </si>
+  <si>
+    <t>02-8888-1111</t>
+  </si>
+  <si>
+    <t>02-8888-2222</t>
+  </si>
+  <si>
+    <t>02-8888-3333</t>
+  </si>
+  <si>
+    <t>02-8888-4444</t>
+  </si>
+  <si>
+    <t>02-8888-5555</t>
+  </si>
+  <si>
+    <t>02-8888-6666</t>
+  </si>
+  <si>
+    <t>02-8888-7777</t>
+  </si>
+  <si>
+    <t>02-8888-8888</t>
+  </si>
+  <si>
+    <t>02-8888-9999</t>
+  </si>
+  <si>
+    <t>02-9999-0000</t>
+  </si>
+  <si>
+    <t>02-9999-1111</t>
+  </si>
+  <si>
+    <t>02-9999-2222</t>
+  </si>
+  <si>
+    <t>02-9999-3333</t>
+  </si>
+  <si>
+    <t>02-9999-4444</t>
+  </si>
+  <si>
+    <t>02-9999-5555</t>
+  </si>
+  <si>
+    <t>02-9999-6666</t>
+  </si>
+  <si>
+    <t>02-9999-7777</t>
+  </si>
+  <si>
+    <t>02-9999-8888</t>
+  </si>
+  <si>
+    <t>02-9999-9999</t>
+  </si>
+  <si>
+    <t>03-0000-0000</t>
+  </si>
+  <si>
+    <t>03-0000-1111</t>
+  </si>
+  <si>
+    <t>03-0000-2222</t>
+  </si>
+  <si>
+    <t>03-0000-3333</t>
+  </si>
+  <si>
+    <t>03-0000-4444</t>
+  </si>
+  <si>
+    <t>03-0000-5555</t>
+  </si>
+  <si>
+    <t>03-0000-6666</t>
+  </si>
+  <si>
+    <t>03-0000-7777</t>
+  </si>
+  <si>
+    <t>03-0000-8888</t>
+  </si>
+  <si>
+    <t>03-0000-9999</t>
+  </si>
+  <si>
+    <t>03-1111-0000</t>
+  </si>
+  <si>
+    <t>03-1111-1111</t>
+  </si>
+  <si>
+    <t>03-1111-2222</t>
+  </si>
+  <si>
+    <t>03-1111-3333</t>
+  </si>
+  <si>
+    <t>03-1111-4444</t>
+  </si>
+  <si>
+    <t>03-1111-5555</t>
+  </si>
+  <si>
+    <t>03-1111-6666</t>
+  </si>
+  <si>
+    <t>03-1111-7777</t>
+  </si>
+  <si>
+    <t>03-1111-8888</t>
+  </si>
+  <si>
+    <t>03-1111-9999</t>
+  </si>
+  <si>
+    <t>03-2222-0000</t>
+  </si>
+  <si>
+    <t>03-2222-1111</t>
+  </si>
+  <si>
+    <t>03-2222-2222</t>
+  </si>
+  <si>
+    <t>03-2222-3333</t>
+  </si>
+  <si>
+    <t>03-2222-4444</t>
+  </si>
+  <si>
+    <t>03-2222-5555</t>
+  </si>
+  <si>
+    <t>03-2222-6666</t>
+  </si>
+  <si>
+    <t>03-2222-7777</t>
+  </si>
+  <si>
+    <t>03-2222-8888</t>
+  </si>
+  <si>
+    <t>03-2222-9999</t>
+  </si>
+  <si>
+    <t>03-3333-0000</t>
+  </si>
+  <si>
+    <t>03-3333-1111</t>
+  </si>
+  <si>
+    <t>03-3333-2222</t>
+  </si>
+  <si>
+    <t>03-3333-3333</t>
+  </si>
+  <si>
+    <t>03-3333-4444</t>
+  </si>
+  <si>
+    <t>03-3333-5555</t>
+  </si>
+  <si>
+    <t>03-3333-6666</t>
+  </si>
+  <si>
+    <t>03-3333-7777</t>
+  </si>
+  <si>
+    <t>03-3333-8888</t>
+  </si>
+  <si>
+    <t>03-3333-9999</t>
+  </si>
+  <si>
+    <t>03-4444-0000</t>
+  </si>
+  <si>
+    <t>03-4444-1111</t>
+  </si>
+  <si>
+    <t>03-4444-2222</t>
+  </si>
+  <si>
+    <t>03-4444-3333</t>
+  </si>
+  <si>
+    <t>03-4444-4444</t>
+  </si>
+  <si>
+    <t>03-4444-5555</t>
+  </si>
+  <si>
+    <t>03-4444-6666</t>
+  </si>
+  <si>
+    <t>03-4444-7777</t>
+  </si>
+  <si>
+    <t>03-4444-8888</t>
+  </si>
+  <si>
+    <t>03-4444-9999</t>
+  </si>
+  <si>
+    <t>03-5555-0000</t>
+  </si>
+  <si>
+    <t>03-5555-1111</t>
+  </si>
+  <si>
+    <t>03-5555-2222</t>
+  </si>
+  <si>
+    <t>03-5555-3333</t>
+  </si>
+  <si>
+    <t>03-5555-4444</t>
+  </si>
+  <si>
+    <t>03-5555-5555</t>
+  </si>
+  <si>
+    <t>03-5555-6666</t>
+  </si>
+  <si>
+    <t>03-5555-7777</t>
+  </si>
+  <si>
+    <t>03-5555-8888</t>
+  </si>
+  <si>
+    <t>03-5555-9999</t>
+  </si>
+  <si>
+    <t>03-6666-0000</t>
+  </si>
+  <si>
+    <t>03-6666-1111</t>
+  </si>
+  <si>
+    <t>03-6666-2222</t>
+  </si>
+  <si>
+    <t>03-6666-3333</t>
+  </si>
+  <si>
+    <t>03-6666-4444</t>
+  </si>
+  <si>
+    <t>03-6666-5555</t>
+  </si>
+  <si>
+    <t>03-6666-6666</t>
+  </si>
+  <si>
+    <t>03-6666-7777</t>
+  </si>
+  <si>
+    <t>03-6666-8888</t>
+  </si>
+  <si>
+    <t>03-6666-9999</t>
+  </si>
+  <si>
+    <t>03-7777-0000</t>
+  </si>
+  <si>
+    <t>03-7777-1111</t>
+  </si>
+  <si>
+    <t>03-7777-2222</t>
+  </si>
+  <si>
+    <t>03-7777-3333</t>
+  </si>
+  <si>
+    <t>03-7777-4444</t>
+  </si>
+  <si>
+    <t>03-7777-5555</t>
+  </si>
+  <si>
+    <t>03-7777-6666</t>
+  </si>
+  <si>
+    <t>03-7777-7777</t>
+  </si>
+  <si>
+    <t>03-7777-8888</t>
+  </si>
+  <si>
+    <t>03-7777-9999</t>
+  </si>
+  <si>
+    <t>03-8888-0000</t>
+  </si>
+  <si>
+    <t>03-8888-1111</t>
+  </si>
+  <si>
+    <t>03-8888-2222</t>
+  </si>
+  <si>
+    <t>03-8888-3333</t>
+  </si>
+  <si>
+    <t>03-8888-4444</t>
+  </si>
+  <si>
+    <t>03-8888-5555</t>
+  </si>
+  <si>
+    <t>03-8888-6666</t>
+  </si>
+  <si>
+    <t>03-8888-7777</t>
+  </si>
+  <si>
+    <t>03-8888-8888</t>
+  </si>
+  <si>
+    <t>03-8888-9999</t>
+  </si>
+  <si>
+    <t>03-9999-0000</t>
+  </si>
+  <si>
+    <t>03-9999-1111</t>
+  </si>
+  <si>
+    <t>03-9999-2222</t>
+  </si>
+  <si>
+    <t>03-9999-3333</t>
+  </si>
+  <si>
+    <t>03-9999-4444</t>
+  </si>
+  <si>
+    <t>03-9999-5555</t>
+  </si>
+  <si>
+    <t>03-9999-6666</t>
+  </si>
+  <si>
+    <t>03-9999-7777</t>
+  </si>
+  <si>
+    <t>03-9999-8888</t>
+  </si>
+  <si>
+    <t>03-9999-9999</t>
+  </si>
+  <si>
+    <t>04-0000-0000</t>
+  </si>
+  <si>
+    <t>04-0000-1111</t>
+  </si>
+  <si>
+    <t>04-0000-2222</t>
+  </si>
+  <si>
+    <t>04-0000-3333</t>
+  </si>
+  <si>
+    <t>04-0000-4444</t>
+  </si>
+  <si>
+    <t>04-0000-5555</t>
+  </si>
+  <si>
+    <t>04-0000-6666</t>
+  </si>
+  <si>
+    <t>04-0000-7777</t>
+  </si>
+  <si>
+    <t>04-0000-8888</t>
+  </si>
+  <si>
+    <t>04-0000-9999</t>
+  </si>
+  <si>
+    <t>04-1111-0000</t>
+  </si>
+  <si>
+    <t>04-1111-1111</t>
+  </si>
+  <si>
+    <t>04-1111-2222</t>
+  </si>
+  <si>
+    <t>04-1111-3333</t>
+  </si>
+  <si>
+    <t>04-1111-4444</t>
+  </si>
+  <si>
+    <t>04-1111-5555</t>
+  </si>
+  <si>
+    <t>04-1111-6666</t>
+  </si>
+  <si>
+    <t>04-1111-7777</t>
+  </si>
+  <si>
+    <t>04-1111-8888</t>
+  </si>
+  <si>
+    <t>04-1111-9999</t>
+  </si>
+  <si>
+    <t>04-2222-0000</t>
+  </si>
+  <si>
+    <t>04-2222-1111</t>
+  </si>
+  <si>
+    <t>04-2222-2222</t>
+  </si>
+  <si>
+    <t>04-2222-3333</t>
+  </si>
+  <si>
+    <t>04-2222-4444</t>
+  </si>
+  <si>
+    <t>04-2222-5555</t>
+  </si>
+  <si>
+    <t>04-2222-6666</t>
+  </si>
+  <si>
+    <t>04-2222-7777</t>
+  </si>
+  <si>
+    <t>04-2222-8888</t>
+  </si>
+  <si>
+    <t>04-2222-9999</t>
+  </si>
+  <si>
+    <t>04-3333-0000</t>
+  </si>
+  <si>
+    <t>04-3333-1111</t>
+  </si>
+  <si>
+    <t>04-3333-2222</t>
+  </si>
+  <si>
+    <t>04-3333-3333</t>
+  </si>
+  <si>
+    <t>04-3333-4444</t>
+  </si>
+  <si>
+    <t>04-3333-5555</t>
+  </si>
+  <si>
+    <t>04-3333-6666</t>
+  </si>
+  <si>
+    <t>04-3333-7777</t>
+  </si>
+  <si>
+    <t>04-3333-8888</t>
+  </si>
+  <si>
+    <t>04-3333-9999</t>
+  </si>
+  <si>
+    <t>04-4444-0000</t>
+  </si>
+  <si>
+    <t>04-4444-1111</t>
+  </si>
+  <si>
+    <t>04-4444-2222</t>
+  </si>
+  <si>
+    <t>04-4444-3333</t>
+  </si>
+  <si>
+    <t>04-4444-4444</t>
+  </si>
+  <si>
+    <t>04-4444-5555</t>
+  </si>
+  <si>
+    <t>04-4444-6666</t>
+  </si>
+  <si>
+    <t>04-4444-7777</t>
+  </si>
+  <si>
+    <t>04-4444-8888</t>
+  </si>
+  <si>
+    <t>04-4444-9999</t>
+  </si>
+  <si>
+    <t>04-5555-0000</t>
+  </si>
+  <si>
+    <t>04-5555-1111</t>
+  </si>
+  <si>
+    <t>04-5555-2222</t>
+  </si>
+  <si>
+    <t>04-5555-3333</t>
+  </si>
+  <si>
+    <t>04-5555-4444</t>
+  </si>
+  <si>
+    <t>04-5555-5555</t>
+  </si>
+  <si>
+    <t>04-5555-6666</t>
+  </si>
+  <si>
+    <t>04-5555-7777</t>
+  </si>
+  <si>
+    <t>04-5555-8888</t>
+  </si>
+  <si>
+    <t>04-5555-9999</t>
+  </si>
+  <si>
+    <t>04-6666-0000</t>
+  </si>
+  <si>
+    <t>04-6666-1111</t>
+  </si>
+  <si>
+    <t>04-6666-2222</t>
+  </si>
+  <si>
+    <t>04-6666-3333</t>
+  </si>
+  <si>
+    <t>04-6666-4444</t>
+  </si>
+  <si>
+    <t>04-6666-5555</t>
+  </si>
+  <si>
+    <t>04-6666-6666</t>
+  </si>
+  <si>
+    <t>04-6666-7777</t>
+  </si>
+  <si>
+    <t>04-6666-8888</t>
+  </si>
+  <si>
+    <t>04-6666-9999</t>
+  </si>
+  <si>
+    <t>04-7777-0000</t>
+  </si>
+  <si>
+    <t>04-7777-1111</t>
+  </si>
+  <si>
+    <t>04-7777-2222</t>
+  </si>
+  <si>
+    <t>04-7777-3333</t>
+  </si>
+  <si>
+    <t>04-7777-4444</t>
+  </si>
+  <si>
+    <t>04-7777-5555</t>
+  </si>
+  <si>
+    <t>04-7777-6666</t>
+  </si>
+  <si>
+    <t>04-7777-7777</t>
+  </si>
+  <si>
+    <t>04-7777-8888</t>
+  </si>
+  <si>
+    <t>04-7777-9999</t>
+  </si>
+  <si>
+    <t>04-8888-0000</t>
+  </si>
+  <si>
+    <t>04-8888-1111</t>
+  </si>
+  <si>
+    <t>04-8888-2222</t>
+  </si>
+  <si>
+    <t>04-8888-3333</t>
+  </si>
+  <si>
+    <t>04-8888-4444</t>
+  </si>
+  <si>
+    <t>04-8888-5555</t>
+  </si>
+  <si>
+    <t>04-8888-6666</t>
+  </si>
+  <si>
+    <t>04-8888-7777</t>
+  </si>
+  <si>
+    <t>04-8888-8888</t>
+  </si>
+  <si>
+    <t>04-8888-9999</t>
+  </si>
+  <si>
+    <t>04-9999-0000</t>
+  </si>
+  <si>
+    <t>04-9999-1111</t>
+  </si>
+  <si>
+    <t>04-9999-2222</t>
+  </si>
+  <si>
+    <t>04-9999-3333</t>
+  </si>
+  <si>
+    <t>04-9999-4444</t>
+  </si>
+  <si>
+    <t>04-9999-5555</t>
+  </si>
+  <si>
+    <t>04-9999-6666</t>
+  </si>
+  <si>
+    <t>04-9999-7777</t>
+  </si>
+  <si>
+    <t>04-9999-8888</t>
+  </si>
+  <si>
+    <t>04-9999-9999</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +2027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +2066,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1466,23 +2384,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4ED79-4ADC-442E-B05B-D647E5CD974D}">
-  <dimension ref="A2:I302"/>
+  <dimension ref="A2:K302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B299" sqref="B299"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9" style="11"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="13"/>
+    <col min="10" max="11" width="9" style="11"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1507,11 +2426,17 @@
       <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1101</v>
       </c>
@@ -1533,11 +2458,17 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1102</v>
       </c>
@@ -1559,11 +2490,17 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1103</v>
       </c>
@@ -1585,11 +2522,17 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1104</v>
       </c>
@@ -1611,11 +2554,17 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1105</v>
       </c>
@@ -1637,11 +2586,17 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1111</v>
       </c>
@@ -1663,11 +2618,17 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1112</v>
       </c>
@@ -1689,11 +2650,17 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1113</v>
       </c>
@@ -1715,11 +2682,17 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1114</v>
       </c>
@@ -1741,11 +2714,17 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1115</v>
       </c>
@@ -1767,11 +2746,17 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1121</v>
       </c>
@@ -1793,11 +2778,17 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1122</v>
       </c>
@@ -1819,11 +2810,17 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1123</v>
       </c>
@@ -1845,11 +2842,17 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1124</v>
       </c>
@@ -1871,11 +2874,17 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1125</v>
       </c>
@@ -1897,11 +2906,17 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1131</v>
       </c>
@@ -1923,11 +2938,17 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1132</v>
       </c>
@@ -1949,11 +2970,17 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1133</v>
       </c>
@@ -1975,11 +3002,17 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1134</v>
       </c>
@@ -2001,11 +3034,17 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1135</v>
       </c>
@@ -2027,11 +3066,17 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1141</v>
       </c>
@@ -2053,11 +3098,17 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1142</v>
       </c>
@@ -2079,11 +3130,17 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1143</v>
       </c>
@@ -2105,11 +3162,17 @@
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1144</v>
       </c>
@@ -2131,11 +3194,17 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1145</v>
       </c>
@@ -2157,11 +3226,17 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K27" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1151</v>
       </c>
@@ -2183,11 +3258,17 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1152</v>
       </c>
@@ -2209,11 +3290,17 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1153</v>
       </c>
@@ -2235,11 +3322,17 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K30" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1154</v>
       </c>
@@ -2261,11 +3354,17 @@
       <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K31" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1155</v>
       </c>
@@ -2287,11 +3386,17 @@
       <c r="H32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K32" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1201</v>
       </c>
@@ -2313,11 +3418,17 @@
       <c r="H33" s="1">
         <v>2</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1202</v>
       </c>
@@ -2339,11 +3450,17 @@
       <c r="H34" s="1">
         <v>2</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K34" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1203</v>
       </c>
@@ -2365,11 +3482,17 @@
       <c r="H35" s="1">
         <v>2</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1204</v>
       </c>
@@ -2391,11 +3514,17 @@
       <c r="H36" s="1">
         <v>2</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K36" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1205</v>
       </c>
@@ -2417,11 +3546,17 @@
       <c r="H37" s="1">
         <v>2</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1211</v>
       </c>
@@ -2443,11 +3578,17 @@
       <c r="H38" s="1">
         <v>2</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1212</v>
       </c>
@@ -2469,11 +3610,17 @@
       <c r="H39" s="1">
         <v>2</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1213</v>
       </c>
@@ -2495,11 +3642,17 @@
       <c r="H40" s="1">
         <v>2</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1214</v>
       </c>
@@ -2521,11 +3674,17 @@
       <c r="H41" s="1">
         <v>2</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1215</v>
       </c>
@@ -2547,11 +3706,17 @@
       <c r="H42" s="1">
         <v>2</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1221</v>
       </c>
@@ -2573,11 +3738,17 @@
       <c r="H43" s="1">
         <v>2</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K43" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1222</v>
       </c>
@@ -2599,11 +3770,17 @@
       <c r="H44" s="1">
         <v>2</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1223</v>
       </c>
@@ -2625,11 +3802,17 @@
       <c r="H45" s="1">
         <v>2</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1224</v>
       </c>
@@ -2651,11 +3834,17 @@
       <c r="H46" s="1">
         <v>2</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1225</v>
       </c>
@@ -2677,11 +3866,17 @@
       <c r="H47" s="1">
         <v>2</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1231</v>
       </c>
@@ -2703,11 +3898,17 @@
       <c r="H48" s="1">
         <v>2</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1232</v>
       </c>
@@ -2729,11 +3930,17 @@
       <c r="H49" s="1">
         <v>2</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1233</v>
       </c>
@@ -2755,11 +3962,17 @@
       <c r="H50" s="1">
         <v>2</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1234</v>
       </c>
@@ -2781,11 +3994,17 @@
       <c r="H51" s="1">
         <v>2</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K51" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1235</v>
       </c>
@@ -2807,11 +4026,17 @@
       <c r="H52" s="1">
         <v>2</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1241</v>
       </c>
@@ -2833,11 +4058,17 @@
       <c r="H53" s="1">
         <v>2</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K53" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1242</v>
       </c>
@@ -2859,11 +4090,17 @@
       <c r="H54" s="1">
         <v>2</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K54" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1243</v>
       </c>
@@ -2885,11 +4122,17 @@
       <c r="H55" s="1">
         <v>2</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K55" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1244</v>
       </c>
@@ -2911,11 +4154,17 @@
       <c r="H56" s="1">
         <v>2</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="I56" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K56" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1245</v>
       </c>
@@ -2937,11 +4186,17 @@
       <c r="H57" s="1">
         <v>2</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="I57" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>1251</v>
       </c>
@@ -2963,11 +4218,17 @@
       <c r="H58" s="1">
         <v>2</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K58" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>1252</v>
       </c>
@@ -2989,11 +4250,17 @@
       <c r="H59" s="1">
         <v>2</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>1253</v>
       </c>
@@ -3015,11 +4282,17 @@
       <c r="H60" s="1">
         <v>2</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1254</v>
       </c>
@@ -3041,11 +4314,17 @@
       <c r="H61" s="1">
         <v>2</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K61" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1255</v>
       </c>
@@ -3067,11 +4346,17 @@
       <c r="H62" s="1">
         <v>2</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I62" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K62" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>1301</v>
       </c>
@@ -3093,11 +4378,17 @@
       <c r="H63" s="1">
         <v>3</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K63" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>1302</v>
       </c>
@@ -3119,11 +4410,17 @@
       <c r="H64" s="1">
         <v>3</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K64" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>1303</v>
       </c>
@@ -3145,11 +4442,17 @@
       <c r="H65" s="1">
         <v>3</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>1304</v>
       </c>
@@ -3171,11 +4474,17 @@
       <c r="H66" s="1">
         <v>3</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K66" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>1305</v>
       </c>
@@ -3197,11 +4506,17 @@
       <c r="H67" s="1">
         <v>3</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="I67" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K67" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>1311</v>
       </c>
@@ -3223,11 +4538,17 @@
       <c r="H68" s="1">
         <v>3</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K68" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>1312</v>
       </c>
@@ -3249,11 +4570,17 @@
       <c r="H69" s="1">
         <v>3</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="I69" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K69" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>1313</v>
       </c>
@@ -3275,11 +4602,17 @@
       <c r="H70" s="1">
         <v>3</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K70" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>1314</v>
       </c>
@@ -3301,11 +4634,17 @@
       <c r="H71" s="1">
         <v>3</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="I71" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K71" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>1315</v>
       </c>
@@ -3327,11 +4666,17 @@
       <c r="H72" s="1">
         <v>3</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="I72" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K72" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>1321</v>
       </c>
@@ -3353,11 +4698,17 @@
       <c r="H73" s="1">
         <v>3</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="I73" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K73" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>1322</v>
       </c>
@@ -3379,11 +4730,17 @@
       <c r="H74" s="1">
         <v>3</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I74" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K74" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>1323</v>
       </c>
@@ -3405,11 +4762,17 @@
       <c r="H75" s="1">
         <v>3</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K75" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>1324</v>
       </c>
@@ -3431,11 +4794,17 @@
       <c r="H76" s="1">
         <v>3</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="I76" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K76" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1325</v>
       </c>
@@ -3457,11 +4826,17 @@
       <c r="H77" s="1">
         <v>3</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="I77" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K77" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1331</v>
       </c>
@@ -3483,11 +4858,17 @@
       <c r="H78" s="1">
         <v>3</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="I78" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K78" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1332</v>
       </c>
@@ -3509,11 +4890,17 @@
       <c r="H79" s="1">
         <v>3</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="I79" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K79" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>1333</v>
       </c>
@@ -3535,11 +4922,17 @@
       <c r="H80" s="1">
         <v>3</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I80" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K80" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>1334</v>
       </c>
@@ -3561,11 +4954,17 @@
       <c r="H81" s="1">
         <v>3</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K81" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1335</v>
       </c>
@@ -3587,11 +4986,17 @@
       <c r="H82" s="1">
         <v>3</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="I82" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K82" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>1341</v>
       </c>
@@ -3613,11 +5018,17 @@
       <c r="H83" s="1">
         <v>3</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K83" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>1342</v>
       </c>
@@ -3639,11 +5050,17 @@
       <c r="H84" s="1">
         <v>3</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K84" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1343</v>
       </c>
@@ -3665,11 +5082,17 @@
       <c r="H85" s="1">
         <v>3</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="I85" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K85" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>1344</v>
       </c>
@@ -3691,11 +5114,17 @@
       <c r="H86" s="1">
         <v>3</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="I86" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K86" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>1345</v>
       </c>
@@ -3717,11 +5146,17 @@
       <c r="H87" s="1">
         <v>3</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K87" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>1351</v>
       </c>
@@ -3743,11 +5178,17 @@
       <c r="H88" s="1">
         <v>3</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="I88" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K88" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>1352</v>
       </c>
@@ -3769,11 +5210,17 @@
       <c r="H89" s="1">
         <v>3</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="I89" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K89" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>1353</v>
       </c>
@@ -3795,11 +5242,17 @@
       <c r="H90" s="1">
         <v>3</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K90" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>1354</v>
       </c>
@@ -3821,11 +5274,17 @@
       <c r="H91" s="1">
         <v>3</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K91" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>1355</v>
       </c>
@@ -3847,11 +5306,17 @@
       <c r="H92" s="1">
         <v>3</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K92" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>1401</v>
       </c>
@@ -3873,11 +5338,17 @@
       <c r="H93" s="1">
         <v>4</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="I93" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K93" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>1402</v>
       </c>
@@ -3899,11 +5370,17 @@
       <c r="H94" s="1">
         <v>4</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="I94" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K94" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>1403</v>
       </c>
@@ -3925,11 +5402,17 @@
       <c r="H95" s="1">
         <v>4</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="I95" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K95" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>1404</v>
       </c>
@@ -3951,11 +5434,17 @@
       <c r="H96" s="1">
         <v>4</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="I96" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K96" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>1405</v>
       </c>
@@ -3977,11 +5466,17 @@
       <c r="H97" s="1">
         <v>4</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="I97" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K97" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>1411</v>
       </c>
@@ -4003,11 +5498,17 @@
       <c r="H98" s="1">
         <v>4</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I98" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K98" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>1412</v>
       </c>
@@ -4029,11 +5530,17 @@
       <c r="H99" s="1">
         <v>4</v>
       </c>
-      <c r="I99" s="11" t="s">
+      <c r="I99" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K99" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>1413</v>
       </c>
@@ -4055,11 +5562,17 @@
       <c r="H100" s="1">
         <v>4</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="I100" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K100" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>1414</v>
       </c>
@@ -4081,11 +5594,17 @@
       <c r="H101" s="1">
         <v>4</v>
       </c>
-      <c r="I101" s="11" t="s">
+      <c r="I101" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K101" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>1415</v>
       </c>
@@ -4107,11 +5626,17 @@
       <c r="H102" s="1">
         <v>4</v>
       </c>
-      <c r="I102" s="11" t="s">
+      <c r="I102" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K102" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>1421</v>
       </c>
@@ -4133,11 +5658,17 @@
       <c r="H103" s="1">
         <v>4</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K103" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>1422</v>
       </c>
@@ -4159,11 +5690,17 @@
       <c r="H104" s="1">
         <v>4</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I104" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K104" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>1423</v>
       </c>
@@ -4185,11 +5722,17 @@
       <c r="H105" s="1">
         <v>4</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="I105" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K105" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>1424</v>
       </c>
@@ -4211,11 +5754,17 @@
       <c r="H106" s="1">
         <v>4</v>
       </c>
-      <c r="I106" s="11" t="s">
+      <c r="I106" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K106" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>1425</v>
       </c>
@@ -4237,11 +5786,17 @@
       <c r="H107" s="1">
         <v>4</v>
       </c>
-      <c r="I107" s="11" t="s">
+      <c r="I107" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K107" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>1431</v>
       </c>
@@ -4263,11 +5818,17 @@
       <c r="H108" s="1">
         <v>4</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="I108" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K108" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>1432</v>
       </c>
@@ -4289,11 +5850,17 @@
       <c r="H109" s="1">
         <v>4</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="I109" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K109" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>1433</v>
       </c>
@@ -4315,11 +5882,17 @@
       <c r="H110" s="1">
         <v>4</v>
       </c>
-      <c r="I110" s="11" t="s">
+      <c r="I110" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K110" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>1434</v>
       </c>
@@ -4341,11 +5914,17 @@
       <c r="H111" s="1">
         <v>4</v>
       </c>
-      <c r="I111" s="11" t="s">
+      <c r="I111" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K111" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>1435</v>
       </c>
@@ -4367,11 +5946,17 @@
       <c r="H112" s="1">
         <v>4</v>
       </c>
-      <c r="I112" s="11" t="s">
+      <c r="I112" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K112" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>1441</v>
       </c>
@@ -4393,11 +5978,17 @@
       <c r="H113" s="1">
         <v>4</v>
       </c>
-      <c r="I113" s="11" t="s">
+      <c r="I113" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K113" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>1442</v>
       </c>
@@ -4419,11 +6010,17 @@
       <c r="H114" s="1">
         <v>4</v>
       </c>
-      <c r="I114" s="11" t="s">
+      <c r="I114" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K114" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>1443</v>
       </c>
@@ -4445,11 +6042,17 @@
       <c r="H115" s="1">
         <v>4</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I115" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K115" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>1444</v>
       </c>
@@ -4471,11 +6074,17 @@
       <c r="H116" s="1">
         <v>4</v>
       </c>
-      <c r="I116" s="11" t="s">
+      <c r="I116" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K116" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>1445</v>
       </c>
@@ -4497,11 +6106,17 @@
       <c r="H117" s="1">
         <v>4</v>
       </c>
-      <c r="I117" s="11" t="s">
+      <c r="I117" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K117" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>1451</v>
       </c>
@@ -4523,11 +6138,17 @@
       <c r="H118" s="1">
         <v>4</v>
       </c>
-      <c r="I118" s="11" t="s">
+      <c r="I118" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K118" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>1452</v>
       </c>
@@ -4549,11 +6170,17 @@
       <c r="H119" s="1">
         <v>4</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="I119" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K119" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>1453</v>
       </c>
@@ -4575,11 +6202,17 @@
       <c r="H120" s="1">
         <v>4</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K120" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>1454</v>
       </c>
@@ -4601,11 +6234,17 @@
       <c r="H121" s="1">
         <v>4</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K121" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>1455</v>
       </c>
@@ -4627,11 +6266,17 @@
       <c r="H122" s="1">
         <v>4</v>
       </c>
-      <c r="I122" s="11" t="s">
+      <c r="I122" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K122" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>1501</v>
       </c>
@@ -4653,11 +6298,17 @@
       <c r="H123" s="1">
         <v>5</v>
       </c>
-      <c r="I123" s="11" t="s">
+      <c r="I123" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K123" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>1502</v>
       </c>
@@ -4679,11 +6330,17 @@
       <c r="H124" s="1">
         <v>5</v>
       </c>
-      <c r="I124" s="11" t="s">
+      <c r="I124" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K124" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>1503</v>
       </c>
@@ -4705,11 +6362,17 @@
       <c r="H125" s="1">
         <v>5</v>
       </c>
-      <c r="I125" s="11" t="s">
+      <c r="I125" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K125" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>1504</v>
       </c>
@@ -4731,11 +6394,17 @@
       <c r="H126" s="1">
         <v>5</v>
       </c>
-      <c r="I126" s="11" t="s">
+      <c r="I126" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K126" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>1505</v>
       </c>
@@ -4757,11 +6426,17 @@
       <c r="H127" s="1">
         <v>5</v>
       </c>
-      <c r="I127" s="11" t="s">
+      <c r="I127" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K127" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>1511</v>
       </c>
@@ -4783,11 +6458,17 @@
       <c r="H128" s="1">
         <v>5</v>
       </c>
-      <c r="I128" s="11" t="s">
+      <c r="I128" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K128" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>1512</v>
       </c>
@@ -4809,11 +6490,17 @@
       <c r="H129" s="1">
         <v>5</v>
       </c>
-      <c r="I129" s="11" t="s">
+      <c r="I129" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K129" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>1513</v>
       </c>
@@ -4835,11 +6522,17 @@
       <c r="H130" s="1">
         <v>5</v>
       </c>
-      <c r="I130" s="11" t="s">
+      <c r="I130" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K130" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>1514</v>
       </c>
@@ -4861,11 +6554,17 @@
       <c r="H131" s="1">
         <v>5</v>
       </c>
-      <c r="I131" s="11" t="s">
+      <c r="I131" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K131" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>1515</v>
       </c>
@@ -4887,11 +6586,17 @@
       <c r="H132" s="1">
         <v>5</v>
       </c>
-      <c r="I132" s="11" t="s">
+      <c r="I132" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K132" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>1521</v>
       </c>
@@ -4913,11 +6618,17 @@
       <c r="H133" s="1">
         <v>5</v>
       </c>
-      <c r="I133" s="11" t="s">
+      <c r="I133" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K133" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>1522</v>
       </c>
@@ -4939,11 +6650,17 @@
       <c r="H134" s="1">
         <v>5</v>
       </c>
-      <c r="I134" s="11" t="s">
+      <c r="I134" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K134" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>1523</v>
       </c>
@@ -4965,11 +6682,17 @@
       <c r="H135" s="1">
         <v>5</v>
       </c>
-      <c r="I135" s="11" t="s">
+      <c r="I135" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K135" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>1524</v>
       </c>
@@ -4991,11 +6714,17 @@
       <c r="H136" s="1">
         <v>5</v>
       </c>
-      <c r="I136" s="11" t="s">
+      <c r="I136" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K136" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>1525</v>
       </c>
@@ -5017,11 +6746,17 @@
       <c r="H137" s="1">
         <v>5</v>
       </c>
-      <c r="I137" s="11" t="s">
+      <c r="I137" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K137" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>1531</v>
       </c>
@@ -5043,11 +6778,17 @@
       <c r="H138" s="1">
         <v>5</v>
       </c>
-      <c r="I138" s="11" t="s">
+      <c r="I138" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K138" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>1532</v>
       </c>
@@ -5069,11 +6810,17 @@
       <c r="H139" s="1">
         <v>5</v>
       </c>
-      <c r="I139" s="11" t="s">
+      <c r="I139" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K139" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>1533</v>
       </c>
@@ -5095,11 +6842,17 @@
       <c r="H140" s="1">
         <v>5</v>
       </c>
-      <c r="I140" s="11" t="s">
+      <c r="I140" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K140" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>1534</v>
       </c>
@@ -5121,11 +6874,17 @@
       <c r="H141" s="1">
         <v>5</v>
       </c>
-      <c r="I141" s="11" t="s">
+      <c r="I141" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K141" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>1535</v>
       </c>
@@ -5147,11 +6906,17 @@
       <c r="H142" s="1">
         <v>5</v>
       </c>
-      <c r="I142" s="11" t="s">
+      <c r="I142" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K142" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>1541</v>
       </c>
@@ -5173,11 +6938,17 @@
       <c r="H143" s="1">
         <v>5</v>
       </c>
-      <c r="I143" s="11" t="s">
+      <c r="I143" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K143" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>1542</v>
       </c>
@@ -5199,11 +6970,17 @@
       <c r="H144" s="1">
         <v>5</v>
       </c>
-      <c r="I144" s="11" t="s">
+      <c r="I144" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K144" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>1543</v>
       </c>
@@ -5225,11 +7002,17 @@
       <c r="H145" s="1">
         <v>5</v>
       </c>
-      <c r="I145" s="11" t="s">
+      <c r="I145" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K145" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>1544</v>
       </c>
@@ -5251,11 +7034,17 @@
       <c r="H146" s="1">
         <v>5</v>
       </c>
-      <c r="I146" s="11" t="s">
+      <c r="I146" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K146" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>1545</v>
       </c>
@@ -5277,11 +7066,17 @@
       <c r="H147" s="1">
         <v>5</v>
       </c>
-      <c r="I147" s="11" t="s">
+      <c r="I147" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K147" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>1551</v>
       </c>
@@ -5303,11 +7098,17 @@
       <c r="H148" s="1">
         <v>5</v>
       </c>
-      <c r="I148" s="11" t="s">
+      <c r="I148" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="J148" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K148" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>1552</v>
       </c>
@@ -5329,11 +7130,17 @@
       <c r="H149" s="1">
         <v>5</v>
       </c>
-      <c r="I149" s="11" t="s">
+      <c r="I149" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K149" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>1553</v>
       </c>
@@ -5355,11 +7162,17 @@
       <c r="H150" s="1">
         <v>5</v>
       </c>
-      <c r="I150" s="11" t="s">
+      <c r="I150" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="J150" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K150" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>1554</v>
       </c>
@@ -5381,11 +7194,17 @@
       <c r="H151" s="1">
         <v>5</v>
       </c>
-      <c r="I151" s="11" t="s">
+      <c r="I151" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="J151" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K151" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>1555</v>
       </c>
@@ -5407,11 +7226,17 @@
       <c r="H152" s="1">
         <v>5</v>
       </c>
-      <c r="I152" s="11" t="s">
+      <c r="I152" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K152" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>2101</v>
       </c>
@@ -5434,11 +7259,17 @@
       <c r="H153" s="1">
         <v>1</v>
       </c>
-      <c r="I153" s="12" t="s">
+      <c r="I153" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K153" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>2102</v>
       </c>
@@ -5460,11 +7291,17 @@
       <c r="H154" s="1">
         <v>1</v>
       </c>
-      <c r="I154" s="11" t="s">
+      <c r="I154" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="J154" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K154" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>2103</v>
       </c>
@@ -5486,11 +7323,17 @@
       <c r="H155" s="1">
         <v>1</v>
       </c>
-      <c r="I155" s="11" t="s">
+      <c r="I155" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K155" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>2104</v>
       </c>
@@ -5512,11 +7355,17 @@
       <c r="H156" s="1">
         <v>1</v>
       </c>
-      <c r="I156" s="11" t="s">
+      <c r="I156" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K156" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>2105</v>
       </c>
@@ -5538,11 +7387,17 @@
       <c r="H157" s="1">
         <v>1</v>
       </c>
-      <c r="I157" s="11" t="s">
+      <c r="I157" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="J157" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K157" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>2111</v>
       </c>
@@ -5564,11 +7419,17 @@
       <c r="H158" s="1">
         <v>1</v>
       </c>
-      <c r="I158" s="11" t="s">
+      <c r="I158" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K158" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>2112</v>
       </c>
@@ -5590,11 +7451,17 @@
       <c r="H159" s="1">
         <v>1</v>
       </c>
-      <c r="I159" s="11" t="s">
+      <c r="I159" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K159" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>2113</v>
       </c>
@@ -5616,11 +7483,17 @@
       <c r="H160" s="1">
         <v>1</v>
       </c>
-      <c r="I160" s="11" t="s">
+      <c r="I160" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K160" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>2114</v>
       </c>
@@ -5642,11 +7515,17 @@
       <c r="H161" s="1">
         <v>1</v>
       </c>
-      <c r="I161" s="11" t="s">
+      <c r="I161" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="J161" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K161" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>2115</v>
       </c>
@@ -5668,11 +7547,17 @@
       <c r="H162" s="1">
         <v>1</v>
       </c>
-      <c r="I162" s="11" t="s">
+      <c r="I162" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K162" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>2121</v>
       </c>
@@ -5694,11 +7579,17 @@
       <c r="H163" s="1">
         <v>1</v>
       </c>
-      <c r="I163" s="11" t="s">
+      <c r="I163" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="J163" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K163" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>2122</v>
       </c>
@@ -5720,11 +7611,17 @@
       <c r="H164" s="1">
         <v>1</v>
       </c>
-      <c r="I164" s="11" t="s">
+      <c r="I164" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K164" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>2123</v>
       </c>
@@ -5746,11 +7643,17 @@
       <c r="H165" s="1">
         <v>1</v>
       </c>
-      <c r="I165" s="11" t="s">
+      <c r="I165" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="J165" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K165" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>2124</v>
       </c>
@@ -5772,11 +7675,17 @@
       <c r="H166" s="1">
         <v>1</v>
       </c>
-      <c r="I166" s="11" t="s">
+      <c r="I166" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K166" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>2125</v>
       </c>
@@ -5798,11 +7707,17 @@
       <c r="H167" s="1">
         <v>1</v>
       </c>
-      <c r="I167" s="11" t="s">
+      <c r="I167" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="J167" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K167" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>2131</v>
       </c>
@@ -5824,11 +7739,17 @@
       <c r="H168" s="1">
         <v>1</v>
       </c>
-      <c r="I168" s="11" t="s">
+      <c r="I168" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K168" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>2132</v>
       </c>
@@ -5850,11 +7771,17 @@
       <c r="H169" s="1">
         <v>1</v>
       </c>
-      <c r="I169" s="11" t="s">
+      <c r="I169" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="J169" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K169" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>2133</v>
       </c>
@@ -5876,11 +7803,17 @@
       <c r="H170" s="1">
         <v>1</v>
       </c>
-      <c r="I170" s="11" t="s">
+      <c r="I170" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="J170" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K170" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>2134</v>
       </c>
@@ -5902,11 +7835,17 @@
       <c r="H171" s="1">
         <v>1</v>
       </c>
-      <c r="I171" s="11" t="s">
+      <c r="I171" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="J171" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K171" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>2135</v>
       </c>
@@ -5928,11 +7867,17 @@
       <c r="H172" s="1">
         <v>1</v>
       </c>
-      <c r="I172" s="11" t="s">
+      <c r="I172" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K172" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>2141</v>
       </c>
@@ -5954,11 +7899,17 @@
       <c r="H173" s="1">
         <v>1</v>
       </c>
-      <c r="I173" s="11" t="s">
+      <c r="I173" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="J173" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K173" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>2142</v>
       </c>
@@ -5980,11 +7931,17 @@
       <c r="H174" s="1">
         <v>1</v>
       </c>
-      <c r="I174" s="11" t="s">
+      <c r="I174" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="J174" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K174" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>2143</v>
       </c>
@@ -6006,11 +7963,17 @@
       <c r="H175" s="1">
         <v>1</v>
       </c>
-      <c r="I175" s="11" t="s">
+      <c r="I175" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="J175" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K175" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>2144</v>
       </c>
@@ -6032,11 +7995,17 @@
       <c r="H176" s="1">
         <v>1</v>
       </c>
-      <c r="I176" s="11" t="s">
+      <c r="I176" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="J176" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K176" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>2145</v>
       </c>
@@ -6058,11 +8027,17 @@
       <c r="H177" s="1">
         <v>1</v>
       </c>
-      <c r="I177" s="11" t="s">
+      <c r="I177" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="J177" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K177" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>2151</v>
       </c>
@@ -6084,11 +8059,17 @@
       <c r="H178" s="1">
         <v>1</v>
       </c>
-      <c r="I178" s="11" t="s">
+      <c r="I178" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K178" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>2152</v>
       </c>
@@ -6110,11 +8091,17 @@
       <c r="H179" s="1">
         <v>1</v>
       </c>
-      <c r="I179" s="11" t="s">
+      <c r="I179" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="J179" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K179" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="9">
         <v>2153</v>
       </c>
@@ -6136,11 +8123,17 @@
       <c r="H180" s="1">
         <v>1</v>
       </c>
-      <c r="I180" s="11" t="s">
+      <c r="I180" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="J180" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K180" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="9">
         <v>2154</v>
       </c>
@@ -6162,11 +8155,17 @@
       <c r="H181" s="1">
         <v>1</v>
       </c>
-      <c r="I181" s="11" t="s">
+      <c r="I181" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K181" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>2155</v>
       </c>
@@ -6188,11 +8187,17 @@
       <c r="H182" s="1">
         <v>1</v>
       </c>
-      <c r="I182" s="11" t="s">
+      <c r="I182" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="J182" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K182" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>2201</v>
       </c>
@@ -6215,11 +8220,17 @@
       <c r="H183" s="1">
         <v>2</v>
       </c>
-      <c r="I183" s="12" t="s">
+      <c r="I183" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="J183" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K183" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>2202</v>
       </c>
@@ -6241,11 +8252,17 @@
       <c r="H184" s="1">
         <v>2</v>
       </c>
-      <c r="I184" s="11" t="s">
+      <c r="I184" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="J184" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K184" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>2203</v>
       </c>
@@ -6267,11 +8284,17 @@
       <c r="H185" s="1">
         <v>2</v>
       </c>
-      <c r="I185" s="11" t="s">
+      <c r="I185" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="J185" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K185" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>2204</v>
       </c>
@@ -6293,11 +8316,17 @@
       <c r="H186" s="1">
         <v>2</v>
       </c>
-      <c r="I186" s="11" t="s">
+      <c r="I186" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="J186" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K186" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>2205</v>
       </c>
@@ -6319,11 +8348,17 @@
       <c r="H187" s="1">
         <v>2</v>
       </c>
-      <c r="I187" s="11" t="s">
+      <c r="I187" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="J187" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K187" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="9">
         <v>2211</v>
       </c>
@@ -6345,11 +8380,17 @@
       <c r="H188" s="1">
         <v>2</v>
       </c>
-      <c r="I188" s="11" t="s">
+      <c r="I188" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="J188" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K188" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="9">
         <v>2212</v>
       </c>
@@ -6371,11 +8412,17 @@
       <c r="H189" s="1">
         <v>2</v>
       </c>
-      <c r="I189" s="11" t="s">
+      <c r="I189" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="J189" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K189" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="9">
         <v>2213</v>
       </c>
@@ -6397,11 +8444,17 @@
       <c r="H190" s="1">
         <v>2</v>
       </c>
-      <c r="I190" s="11" t="s">
+      <c r="I190" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="J190" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K190" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>2214</v>
       </c>
@@ -6423,11 +8476,17 @@
       <c r="H191" s="1">
         <v>2</v>
       </c>
-      <c r="I191" s="11" t="s">
+      <c r="I191" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K191" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="9">
         <v>2215</v>
       </c>
@@ -6449,11 +8508,17 @@
       <c r="H192" s="1">
         <v>2</v>
       </c>
-      <c r="I192" s="11" t="s">
+      <c r="I192" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="J192" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K192" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>2221</v>
       </c>
@@ -6475,11 +8540,17 @@
       <c r="H193" s="1">
         <v>2</v>
       </c>
-      <c r="I193" s="11" t="s">
+      <c r="I193" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K193" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>2222</v>
       </c>
@@ -6501,11 +8572,17 @@
       <c r="H194" s="1">
         <v>2</v>
       </c>
-      <c r="I194" s="11" t="s">
+      <c r="I194" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J194" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K194" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>2223</v>
       </c>
@@ -6527,11 +8604,17 @@
       <c r="H195" s="1">
         <v>2</v>
       </c>
-      <c r="I195" s="11" t="s">
+      <c r="I195" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="J195" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K195" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>2224</v>
       </c>
@@ -6553,11 +8636,17 @@
       <c r="H196" s="1">
         <v>2</v>
       </c>
-      <c r="I196" s="11" t="s">
+      <c r="I196" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="J196" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K196" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>2225</v>
       </c>
@@ -6579,11 +8668,17 @@
       <c r="H197" s="1">
         <v>2</v>
       </c>
-      <c r="I197" s="11" t="s">
+      <c r="I197" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K197" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
         <v>2231</v>
       </c>
@@ -6605,11 +8700,17 @@
       <c r="H198" s="1">
         <v>2</v>
       </c>
-      <c r="I198" s="11" t="s">
+      <c r="I198" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="J198" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K198" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="9">
         <v>2232</v>
       </c>
@@ -6631,11 +8732,17 @@
       <c r="H199" s="1">
         <v>2</v>
       </c>
-      <c r="I199" s="11" t="s">
+      <c r="I199" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="J199" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K199" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="9">
         <v>2233</v>
       </c>
@@ -6657,11 +8764,17 @@
       <c r="H200" s="1">
         <v>2</v>
       </c>
-      <c r="I200" s="11" t="s">
+      <c r="I200" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="J200" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K200" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
         <v>2234</v>
       </c>
@@ -6683,11 +8796,17 @@
       <c r="H201" s="1">
         <v>2</v>
       </c>
-      <c r="I201" s="11" t="s">
+      <c r="I201" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="J201" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K201" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
         <v>2235</v>
       </c>
@@ -6709,11 +8828,17 @@
       <c r="H202" s="1">
         <v>2</v>
       </c>
-      <c r="I202" s="11" t="s">
+      <c r="I202" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="J202" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K202" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>2241</v>
       </c>
@@ -6735,11 +8860,17 @@
       <c r="H203" s="1">
         <v>2</v>
       </c>
-      <c r="I203" s="11" t="s">
+      <c r="I203" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="J203" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K203" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>2242</v>
       </c>
@@ -6761,11 +8892,17 @@
       <c r="H204" s="1">
         <v>2</v>
       </c>
-      <c r="I204" s="11" t="s">
+      <c r="I204" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="J204" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K204" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>2243</v>
       </c>
@@ -6787,11 +8924,17 @@
       <c r="H205" s="1">
         <v>2</v>
       </c>
-      <c r="I205" s="11" t="s">
+      <c r="I205" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="J205" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K205" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>2244</v>
       </c>
@@ -6813,11 +8956,17 @@
       <c r="H206" s="1">
         <v>2</v>
       </c>
-      <c r="I206" s="11" t="s">
+      <c r="I206" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="J206" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K206" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>2245</v>
       </c>
@@ -6839,11 +8988,17 @@
       <c r="H207" s="1">
         <v>2</v>
       </c>
-      <c r="I207" s="11" t="s">
+      <c r="I207" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="J207" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K207" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
         <v>2251</v>
       </c>
@@ -6865,11 +9020,17 @@
       <c r="H208" s="1">
         <v>2</v>
       </c>
-      <c r="I208" s="11" t="s">
+      <c r="I208" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="J208" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K208" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="9">
         <v>2252</v>
       </c>
@@ -6891,11 +9052,17 @@
       <c r="H209" s="1">
         <v>2</v>
       </c>
-      <c r="I209" s="11" t="s">
+      <c r="I209" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="J209" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K209" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
         <v>2253</v>
       </c>
@@ -6917,11 +9084,17 @@
       <c r="H210" s="1">
         <v>2</v>
       </c>
-      <c r="I210" s="11" t="s">
+      <c r="I210" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="J210" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K210" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="9">
         <v>2254</v>
       </c>
@@ -6943,11 +9116,17 @@
       <c r="H211" s="1">
         <v>2</v>
       </c>
-      <c r="I211" s="11" t="s">
+      <c r="I211" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="J211" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K211" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="9">
         <v>2255</v>
       </c>
@@ -6969,11 +9148,17 @@
       <c r="H212" s="1">
         <v>2</v>
       </c>
-      <c r="I212" s="11" t="s">
+      <c r="I212" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="J212" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K212" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>2301</v>
       </c>
@@ -6996,11 +9181,17 @@
       <c r="H213" s="1">
         <v>3</v>
       </c>
-      <c r="I213" s="12" t="s">
+      <c r="I213" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="J213" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K213" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>2302</v>
       </c>
@@ -7022,11 +9213,17 @@
       <c r="H214" s="1">
         <v>3</v>
       </c>
-      <c r="I214" s="11" t="s">
+      <c r="I214" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="J214" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K214" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>2303</v>
       </c>
@@ -7048,11 +9245,17 @@
       <c r="H215" s="1">
         <v>3</v>
       </c>
-      <c r="I215" s="11" t="s">
+      <c r="I215" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="J215" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K215" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>2304</v>
       </c>
@@ -7074,11 +9277,17 @@
       <c r="H216" s="1">
         <v>3</v>
       </c>
-      <c r="I216" s="11" t="s">
+      <c r="I216" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="J216" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K216" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>2305</v>
       </c>
@@ -7100,11 +9309,17 @@
       <c r="H217" s="1">
         <v>3</v>
       </c>
-      <c r="I217" s="11" t="s">
+      <c r="I217" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="J217" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K217" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>2311</v>
       </c>
@@ -7126,11 +9341,17 @@
       <c r="H218" s="1">
         <v>3</v>
       </c>
-      <c r="I218" s="11" t="s">
+      <c r="I218" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="J218" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K218" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>2312</v>
       </c>
@@ -7152,11 +9373,17 @@
       <c r="H219" s="1">
         <v>3</v>
       </c>
-      <c r="I219" s="11" t="s">
+      <c r="I219" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="J219" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K219" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>2313</v>
       </c>
@@ -7178,11 +9405,17 @@
       <c r="H220" s="1">
         <v>3</v>
       </c>
-      <c r="I220" s="11" t="s">
+      <c r="I220" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="J220" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K220" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>2314</v>
       </c>
@@ -7204,11 +9437,17 @@
       <c r="H221" s="1">
         <v>3</v>
       </c>
-      <c r="I221" s="11" t="s">
+      <c r="I221" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="J221" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K221" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
         <v>2315</v>
       </c>
@@ -7230,11 +9469,17 @@
       <c r="H222" s="1">
         <v>3</v>
       </c>
-      <c r="I222" s="11" t="s">
+      <c r="I222" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="J222" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K222" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>2321</v>
       </c>
@@ -7256,11 +9501,17 @@
       <c r="H223" s="1">
         <v>3</v>
       </c>
-      <c r="I223" s="11" t="s">
+      <c r="I223" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="J223" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K223" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>2322</v>
       </c>
@@ -7282,11 +9533,17 @@
       <c r="H224" s="1">
         <v>3</v>
       </c>
-      <c r="I224" s="11" t="s">
+      <c r="I224" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="J224" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K224" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>2323</v>
       </c>
@@ -7308,11 +9565,17 @@
       <c r="H225" s="1">
         <v>3</v>
       </c>
-      <c r="I225" s="11" t="s">
+      <c r="I225" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="J225" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K225" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>2324</v>
       </c>
@@ -7334,11 +9597,17 @@
       <c r="H226" s="1">
         <v>3</v>
       </c>
-      <c r="I226" s="11" t="s">
+      <c r="I226" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="J226" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K226" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>2325</v>
       </c>
@@ -7360,11 +9629,17 @@
       <c r="H227" s="1">
         <v>3</v>
       </c>
-      <c r="I227" s="11" t="s">
+      <c r="I227" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="J227" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K227" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>2331</v>
       </c>
@@ -7386,11 +9661,17 @@
       <c r="H228" s="1">
         <v>3</v>
       </c>
-      <c r="I228" s="11" t="s">
+      <c r="I228" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="J228" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K228" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>2332</v>
       </c>
@@ -7412,11 +9693,17 @@
       <c r="H229" s="1">
         <v>3</v>
       </c>
-      <c r="I229" s="11" t="s">
+      <c r="I229" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="J229" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K229" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>2333</v>
       </c>
@@ -7438,11 +9725,17 @@
       <c r="H230" s="1">
         <v>3</v>
       </c>
-      <c r="I230" s="11" t="s">
+      <c r="I230" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="J230" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K230" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>2334</v>
       </c>
@@ -7464,11 +9757,17 @@
       <c r="H231" s="1">
         <v>3</v>
       </c>
-      <c r="I231" s="11" t="s">
+      <c r="I231" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="J231" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K231" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="9">
         <v>2335</v>
       </c>
@@ -7490,11 +9789,17 @@
       <c r="H232" s="1">
         <v>3</v>
       </c>
-      <c r="I232" s="11" t="s">
+      <c r="I232" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="J232" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K232" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>2341</v>
       </c>
@@ -7516,11 +9821,17 @@
       <c r="H233" s="1">
         <v>3</v>
       </c>
-      <c r="I233" s="11" t="s">
+      <c r="I233" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="J233" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K233" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>2342</v>
       </c>
@@ -7542,11 +9853,17 @@
       <c r="H234" s="1">
         <v>3</v>
       </c>
-      <c r="I234" s="11" t="s">
+      <c r="I234" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="J234" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K234" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>2343</v>
       </c>
@@ -7568,11 +9885,17 @@
       <c r="H235" s="1">
         <v>3</v>
       </c>
-      <c r="I235" s="11" t="s">
+      <c r="I235" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="J235" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K235" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>2344</v>
       </c>
@@ -7594,11 +9917,17 @@
       <c r="H236" s="1">
         <v>3</v>
       </c>
-      <c r="I236" s="11" t="s">
+      <c r="I236" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="J236" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K236" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>2345</v>
       </c>
@@ -7620,11 +9949,17 @@
       <c r="H237" s="1">
         <v>3</v>
       </c>
-      <c r="I237" s="11" t="s">
+      <c r="I237" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="J237" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K237" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="9">
         <v>2351</v>
       </c>
@@ -7646,11 +9981,17 @@
       <c r="H238" s="1">
         <v>3</v>
       </c>
-      <c r="I238" s="11" t="s">
+      <c r="I238" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="J238" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K238" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
         <v>2352</v>
       </c>
@@ -7672,11 +10013,17 @@
       <c r="H239" s="1">
         <v>3</v>
       </c>
-      <c r="I239" s="11" t="s">
+      <c r="I239" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="J239" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K239" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
         <v>2353</v>
       </c>
@@ -7698,11 +10045,17 @@
       <c r="H240" s="1">
         <v>3</v>
       </c>
-      <c r="I240" s="11" t="s">
+      <c r="I240" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="J240" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K240" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
         <v>2354</v>
       </c>
@@ -7724,11 +10077,17 @@
       <c r="H241" s="1">
         <v>3</v>
       </c>
-      <c r="I241" s="11" t="s">
+      <c r="I241" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="J241" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K241" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>2355</v>
       </c>
@@ -7750,11 +10109,17 @@
       <c r="H242" s="1">
         <v>3</v>
       </c>
-      <c r="I242" s="11" t="s">
+      <c r="I242" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="J242" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K242" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>2401</v>
       </c>
@@ -7777,11 +10142,17 @@
       <c r="H243" s="1">
         <v>4</v>
       </c>
-      <c r="I243" s="12" t="s">
+      <c r="I243" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="J243" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K243" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>2402</v>
       </c>
@@ -7803,11 +10174,17 @@
       <c r="H244" s="1">
         <v>4</v>
       </c>
-      <c r="I244" s="11" t="s">
+      <c r="I244" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="J244" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K244" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>2403</v>
       </c>
@@ -7829,11 +10206,17 @@
       <c r="H245" s="1">
         <v>4</v>
       </c>
-      <c r="I245" s="11" t="s">
+      <c r="I245" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="J245" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K245" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>2404</v>
       </c>
@@ -7855,11 +10238,17 @@
       <c r="H246" s="1">
         <v>4</v>
       </c>
-      <c r="I246" s="11" t="s">
+      <c r="I246" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="J246" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K246" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>2405</v>
       </c>
@@ -7881,11 +10270,17 @@
       <c r="H247" s="1">
         <v>4</v>
       </c>
-      <c r="I247" s="11" t="s">
+      <c r="I247" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="J247" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K247" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
         <v>2411</v>
       </c>
@@ -7907,11 +10302,17 @@
       <c r="H248" s="1">
         <v>4</v>
       </c>
-      <c r="I248" s="11" t="s">
+      <c r="I248" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="J248" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K248" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="9">
         <v>2412</v>
       </c>
@@ -7933,11 +10334,17 @@
       <c r="H249" s="1">
         <v>4</v>
       </c>
-      <c r="I249" s="11" t="s">
+      <c r="I249" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="J249" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K249" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="9">
         <v>2413</v>
       </c>
@@ -7959,11 +10366,17 @@
       <c r="H250" s="1">
         <v>4</v>
       </c>
-      <c r="I250" s="11" t="s">
+      <c r="I250" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="J250" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K250" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="9">
         <v>2414</v>
       </c>
@@ -7985,11 +10398,17 @@
       <c r="H251" s="1">
         <v>4</v>
       </c>
-      <c r="I251" s="11" t="s">
+      <c r="I251" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="J251" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K251" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="9">
         <v>2415</v>
       </c>
@@ -8011,11 +10430,17 @@
       <c r="H252" s="1">
         <v>4</v>
       </c>
-      <c r="I252" s="11" t="s">
+      <c r="I252" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="J252" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K252" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>2421</v>
       </c>
@@ -8037,11 +10462,17 @@
       <c r="H253" s="1">
         <v>4</v>
       </c>
-      <c r="I253" s="11" t="s">
+      <c r="I253" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="J253" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K253" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>2422</v>
       </c>
@@ -8063,11 +10494,17 @@
       <c r="H254" s="1">
         <v>4</v>
       </c>
-      <c r="I254" s="11" t="s">
+      <c r="I254" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="J254" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K254" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>2423</v>
       </c>
@@ -8089,11 +10526,17 @@
       <c r="H255" s="1">
         <v>4</v>
       </c>
-      <c r="I255" s="11" t="s">
+      <c r="I255" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="J255" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K255" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>2424</v>
       </c>
@@ -8115,11 +10558,17 @@
       <c r="H256" s="1">
         <v>4</v>
       </c>
-      <c r="I256" s="11" t="s">
+      <c r="I256" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="J256" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K256" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>2425</v>
       </c>
@@ -8141,11 +10590,17 @@
       <c r="H257" s="1">
         <v>4</v>
       </c>
-      <c r="I257" s="11" t="s">
+      <c r="I257" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J257" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K257" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="9">
         <v>2431</v>
       </c>
@@ -8167,11 +10622,17 @@
       <c r="H258" s="1">
         <v>4</v>
       </c>
-      <c r="I258" s="11" t="s">
+      <c r="I258" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="J258" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K258" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
         <v>2432</v>
       </c>
@@ -8193,11 +10654,17 @@
       <c r="H259" s="1">
         <v>4</v>
       </c>
-      <c r="I259" s="11" t="s">
+      <c r="I259" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J259" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K259" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
         <v>2433</v>
       </c>
@@ -8219,11 +10686,17 @@
       <c r="H260" s="1">
         <v>4</v>
       </c>
-      <c r="I260" s="11" t="s">
+      <c r="I260" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="J260" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K260" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="9">
         <v>2434</v>
       </c>
@@ -8245,11 +10718,17 @@
       <c r="H261" s="1">
         <v>4</v>
       </c>
-      <c r="I261" s="11" t="s">
+      <c r="I261" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="J261" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K261" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
         <v>2435</v>
       </c>
@@ -8271,11 +10750,17 @@
       <c r="H262" s="1">
         <v>4</v>
       </c>
-      <c r="I262" s="11" t="s">
+      <c r="I262" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="J262" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K262" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>2441</v>
       </c>
@@ -8297,11 +10782,17 @@
       <c r="H263" s="1">
         <v>4</v>
       </c>
-      <c r="I263" s="11" t="s">
+      <c r="I263" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="J263" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K263" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
         <v>2442</v>
       </c>
@@ -8323,11 +10814,17 @@
       <c r="H264" s="1">
         <v>4</v>
       </c>
-      <c r="I264" s="11" t="s">
+      <c r="I264" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="J264" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K264" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>2443</v>
       </c>
@@ -8349,11 +10846,17 @@
       <c r="H265" s="1">
         <v>4</v>
       </c>
-      <c r="I265" s="11" t="s">
+      <c r="I265" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="J265" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K265" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>2444</v>
       </c>
@@ -8375,11 +10878,17 @@
       <c r="H266" s="1">
         <v>4</v>
       </c>
-      <c r="I266" s="11" t="s">
+      <c r="I266" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="J266" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K266" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>2445</v>
       </c>
@@ -8401,11 +10910,17 @@
       <c r="H267" s="1">
         <v>4</v>
       </c>
-      <c r="I267" s="11" t="s">
+      <c r="I267" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="J267" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K267" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
         <v>2451</v>
       </c>
@@ -8427,11 +10942,17 @@
       <c r="H268" s="1">
         <v>4</v>
       </c>
-      <c r="I268" s="11" t="s">
+      <c r="I268" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="J268" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K268" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
         <v>2452</v>
       </c>
@@ -8453,11 +10974,17 @@
       <c r="H269" s="1">
         <v>4</v>
       </c>
-      <c r="I269" s="11" t="s">
+      <c r="I269" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="J269" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K269" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="9">
         <v>2453</v>
       </c>
@@ -8479,11 +11006,17 @@
       <c r="H270" s="1">
         <v>4</v>
       </c>
-      <c r="I270" s="11" t="s">
+      <c r="I270" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="J270" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K270" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
         <v>2454</v>
       </c>
@@ -8505,11 +11038,17 @@
       <c r="H271" s="1">
         <v>4</v>
       </c>
-      <c r="I271" s="11" t="s">
+      <c r="I271" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="J271" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K271" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="9">
         <v>2455</v>
       </c>
@@ -8531,11 +11070,17 @@
       <c r="H272" s="1">
         <v>4</v>
       </c>
-      <c r="I272" s="11" t="s">
+      <c r="I272" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="J272" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K272" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>2501</v>
       </c>
@@ -8558,11 +11103,17 @@
       <c r="H273" s="1">
         <v>5</v>
       </c>
-      <c r="I273" s="12" t="s">
+      <c r="I273" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="J273" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K273" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>2502</v>
       </c>
@@ -8584,11 +11135,17 @@
       <c r="H274" s="1">
         <v>5</v>
       </c>
-      <c r="I274" s="11" t="s">
+      <c r="I274" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="J274" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K274" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>2503</v>
       </c>
@@ -8610,11 +11167,17 @@
       <c r="H275" s="1">
         <v>5</v>
       </c>
-      <c r="I275" s="11" t="s">
+      <c r="I275" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="J275" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K275" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>2504</v>
       </c>
@@ -8636,11 +11199,17 @@
       <c r="H276" s="1">
         <v>5</v>
       </c>
-      <c r="I276" s="11" t="s">
+      <c r="I276" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="J276" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K276" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>2505</v>
       </c>
@@ -8662,11 +11231,17 @@
       <c r="H277" s="1">
         <v>5</v>
       </c>
-      <c r="I277" s="11" t="s">
+      <c r="I277" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="J277" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K277" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="9">
         <v>2511</v>
       </c>
@@ -8688,11 +11263,17 @@
       <c r="H278" s="1">
         <v>5</v>
       </c>
-      <c r="I278" s="11" t="s">
+      <c r="I278" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="J278" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K278" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="9">
         <v>2512</v>
       </c>
@@ -8714,11 +11295,17 @@
       <c r="H279" s="1">
         <v>5</v>
       </c>
-      <c r="I279" s="11" t="s">
+      <c r="I279" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="J279" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K279" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="9">
         <v>2513</v>
       </c>
@@ -8740,11 +11327,17 @@
       <c r="H280" s="1">
         <v>5</v>
       </c>
-      <c r="I280" s="11" t="s">
+      <c r="I280" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="J280" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K280" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="9">
         <v>2514</v>
       </c>
@@ -8766,11 +11359,17 @@
       <c r="H281" s="1">
         <v>5</v>
       </c>
-      <c r="I281" s="11" t="s">
+      <c r="I281" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="J281" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K281" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="9">
         <v>2515</v>
       </c>
@@ -8792,11 +11391,17 @@
       <c r="H282" s="1">
         <v>5</v>
       </c>
-      <c r="I282" s="11" t="s">
+      <c r="I282" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J282" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K282" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>2521</v>
       </c>
@@ -8818,11 +11423,17 @@
       <c r="H283" s="1">
         <v>5</v>
       </c>
-      <c r="I283" s="11" t="s">
+      <c r="I283" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="J283" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K283" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>2522</v>
       </c>
@@ -8844,11 +11455,17 @@
       <c r="H284" s="1">
         <v>5</v>
       </c>
-      <c r="I284" s="11" t="s">
+      <c r="I284" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="J284" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K284" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>2523</v>
       </c>
@@ -8870,11 +11487,17 @@
       <c r="H285" s="1">
         <v>5</v>
       </c>
-      <c r="I285" s="11" t="s">
+      <c r="I285" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="J285" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K285" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>2524</v>
       </c>
@@ -8896,11 +11519,17 @@
       <c r="H286" s="1">
         <v>5</v>
       </c>
-      <c r="I286" s="11" t="s">
+      <c r="I286" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="J286" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K286" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>2525</v>
       </c>
@@ -8922,11 +11551,17 @@
       <c r="H287" s="1">
         <v>5</v>
       </c>
-      <c r="I287" s="11" t="s">
+      <c r="I287" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J287" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K287" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="9">
         <v>2531</v>
       </c>
@@ -8948,11 +11583,17 @@
       <c r="H288" s="1">
         <v>5</v>
       </c>
-      <c r="I288" s="11" t="s">
+      <c r="I288" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="J288" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K288" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="9">
         <v>2532</v>
       </c>
@@ -8974,11 +11615,17 @@
       <c r="H289" s="1">
         <v>5</v>
       </c>
-      <c r="I289" s="11" t="s">
+      <c r="I289" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="J289" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K289" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="9">
         <v>2533</v>
       </c>
@@ -9000,11 +11647,17 @@
       <c r="H290" s="1">
         <v>5</v>
       </c>
-      <c r="I290" s="11" t="s">
+      <c r="I290" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="J290" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K290" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="9">
         <v>2534</v>
       </c>
@@ -9026,11 +11679,17 @@
       <c r="H291" s="1">
         <v>5</v>
       </c>
-      <c r="I291" s="11" t="s">
+      <c r="I291" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="J291" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K291" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="9">
         <v>2535</v>
       </c>
@@ -9052,11 +11711,17 @@
       <c r="H292" s="1">
         <v>5</v>
       </c>
-      <c r="I292" s="11" t="s">
+      <c r="I292" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="J292" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K292" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>2541</v>
       </c>
@@ -9078,11 +11743,17 @@
       <c r="H293" s="1">
         <v>5</v>
       </c>
-      <c r="I293" s="11" t="s">
+      <c r="I293" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="J293" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K293" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>2542</v>
       </c>
@@ -9104,11 +11775,17 @@
       <c r="H294" s="1">
         <v>5</v>
       </c>
-      <c r="I294" s="11" t="s">
+      <c r="I294" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="J294" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K294" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>2543</v>
       </c>
@@ -9130,11 +11807,17 @@
       <c r="H295" s="1">
         <v>5</v>
       </c>
-      <c r="I295" s="11" t="s">
+      <c r="I295" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="J295" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K295" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>2544</v>
       </c>
@@ -9156,11 +11839,17 @@
       <c r="H296" s="1">
         <v>5</v>
       </c>
-      <c r="I296" s="11" t="s">
+      <c r="I296" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="J296" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K296" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>2545</v>
       </c>
@@ -9182,11 +11871,17 @@
       <c r="H297" s="1">
         <v>5</v>
       </c>
-      <c r="I297" s="11" t="s">
+      <c r="I297" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="J297" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K297" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="9">
         <v>2551</v>
       </c>
@@ -9208,11 +11903,17 @@
       <c r="H298" s="1">
         <v>5</v>
       </c>
-      <c r="I298" s="11" t="s">
+      <c r="I298" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J298" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K298" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="9">
         <v>2552</v>
       </c>
@@ -9234,11 +11935,17 @@
       <c r="H299" s="1">
         <v>5</v>
       </c>
-      <c r="I299" s="11" t="s">
+      <c r="I299" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="J299" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K299" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="9">
         <v>2553</v>
       </c>
@@ -9260,11 +11967,17 @@
       <c r="H300" s="1">
         <v>5</v>
       </c>
-      <c r="I300" s="11" t="s">
+      <c r="I300" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="J300" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K300" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="9">
         <v>2554</v>
       </c>
@@ -9286,11 +11999,17 @@
       <c r="H301" s="1">
         <v>5</v>
       </c>
-      <c r="I301" s="11" t="s">
+      <c r="I301" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="J301" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K301" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="9">
         <v>2555</v>
       </c>
@@ -9312,7 +12031,13 @@
       <c r="H302" s="1">
         <v>5</v>
       </c>
-      <c r="I302" s="11" t="s">
+      <c r="I302" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="J302" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="K302" s="11" t="s">
         <v>80</v>
       </c>
     </row>
